--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/67/word_level_predictions_67.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,59 +4553,59 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,260 +18130,260 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="F491" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G491" s="2" t="b">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="L491" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/67/word_level_predictions_67.xlsx
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,83 +4529,83 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18130,260 +18130,260 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>3</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
+      <c r="F345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="F491" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G491" s="2" t="b">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="L491" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
